--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5DBF69-7CED-BB4B-8B87-98EFB0CE031C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247CE29E-7D45-F849-9DD6-87708FA161FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -112,6 +112,51 @@
   </si>
   <si>
     <t>Finalisieren der Konzeptbeschreibung und Issues/Milestones erstellen</t>
+  </si>
+  <si>
+    <t>Festlegen der Rest-Endpoints</t>
+  </si>
+  <si>
+    <t>Projektplan erstellen</t>
+  </si>
+  <si>
+    <t>Implementierung Entitäten und Repositories</t>
+  </si>
+  <si>
+    <t>Implementierung Rest-Endpoint für Raspberry</t>
+  </si>
+  <si>
+    <t>Tests für Rest-Endpoint Raspberry</t>
+  </si>
+  <si>
+    <t>Implementierung basic LobbyService</t>
+  </si>
+  <si>
+    <t>Implementierung GameController und entsprechende DTOs</t>
+  </si>
+  <si>
+    <t>Tests für GameController und LobbyService + Bugfixing</t>
+  </si>
+  <si>
+    <t>Implementierung + Tests Ausnahme Raspberry nicht registiert</t>
+  </si>
+  <si>
+    <t>Überarbeitung REST Dokumentation</t>
+  </si>
+  <si>
+    <t>Einführung Thomas REST mit Java am Beispiel CategoryController</t>
+  </si>
+  <si>
+    <t>Teammeeting</t>
+  </si>
+  <si>
+    <t>Beginn implementierungsklassendiagramm</t>
+  </si>
+  <si>
+    <t>Erweiterung REST-Dokumentation</t>
+  </si>
+  <si>
+    <t>Fix GIT</t>
   </si>
 </sst>
 </file>
@@ -526,7 +571,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -570,7 +615,7 @@
         <v>44263</v>
       </c>
       <c r="B3" s="7">
-        <v>7.2916666666666671E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -664,84 +709,228 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="8">
+        <v>44277</v>
+      </c>
+      <c r="B10" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8">
+        <v>44281</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>44284</v>
+      </c>
+      <c r="B13" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8">
+        <v>44284</v>
+      </c>
+      <c r="B14" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>44284</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8">
+        <v>44285</v>
+      </c>
+      <c r="B16" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8">
+        <v>44285</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B22" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B25" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247CE29E-7D45-F849-9DD6-87708FA161FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF7AA6-F532-2841-9B62-1F42990EF1E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>Fix GIT</t>
+  </si>
+  <si>
+    <t>Refactoring RaspberryService + Controller</t>
+  </si>
+  <si>
+    <t>Erweiterung RaspberryService + Controller (Batteriestatus, Connectivitystatus)</t>
+  </si>
+  <si>
+    <t>Einführung Angular</t>
   </si>
 </sst>
 </file>
@@ -568,10 +577,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -878,7 +887,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B22" s="7">
         <v>5.2083333333333336E-2</v>
@@ -892,7 +901,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B23" s="7">
         <v>3.125E-2</v>
@@ -906,7 +915,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B24" s="7">
         <v>3.125E-2</v>
@@ -920,7 +929,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B25" s="7">
         <v>8.3333333333333329E-2</v>
@@ -933,24 +942,60 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>44290</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>44290</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>44292</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF7AA6-F532-2841-9B62-1F42990EF1E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBDC222-7DE6-8D4E-B0BC-8C7D4C9FD858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Einführung Angular</t>
+  </si>
+  <si>
+    <t>Hilfestellung Diana: Refactoring Raspberry</t>
+  </si>
+  <si>
+    <t>Einarbeitung websockets</t>
+  </si>
+  <si>
+    <t>Initialimplementierung und Debugging websockets</t>
+  </si>
+  <si>
+    <t>Erklärung Matthias Websockets Spring</t>
   </si>
 </sst>
 </file>
@@ -580,7 +592,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -998,34 +1010,88 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B30" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>44301</v>
+      </c>
+      <c r="B31" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B32" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBDC222-7DE6-8D4E-B0BC-8C7D4C9FD858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EC38A-3462-0248-A922-3003AF650944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Erklärung Matthias Websockets Spring</t>
+  </si>
+  <si>
+    <t>Teilnahme Workshop "5"</t>
+  </si>
+  <si>
+    <t>Implementierung und Debugging Spiellogik Vorbereitungsphase</t>
   </si>
 </sst>
 </file>
@@ -589,10 +595,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1094,19 +1100,46 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>44306</v>
+      </c>
+      <c r="B36" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EC38A-3462-0248-A922-3003AF650944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F0517E-23D5-444F-A585-E3ACACDC6A87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -184,6 +184,30 @@
   </si>
   <si>
     <t>Implementierung und Debugging Spiellogik Vorbereitungsphase</t>
+  </si>
+  <si>
+    <t>Debugging Spiellogik Vorbereitungsphase</t>
+  </si>
+  <si>
+    <t>Rework Spiellogik Vorbereitungsphase (susbstitute websocket with rest)</t>
+  </si>
+  <si>
+    <t>Implementierung startGame</t>
+  </si>
+  <si>
+    <t>Implementierung Spielfluss</t>
+  </si>
+  <si>
+    <t>Bugfixing + Implementierung features Spielfluss + Dice Available Endpoint</t>
+  </si>
+  <si>
+    <t>Javadoc + Polishing Gamelogic Klassen</t>
+  </si>
+  <si>
+    <t>Bugfixing Kommunikation Spiel</t>
+  </si>
+  <si>
+    <t>Implementierung Persistierungsphase</t>
   </si>
 </sst>
 </file>
@@ -595,10 +619,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1142,54 +1166,144 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>44312</v>
+      </c>
+      <c r="B39" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B42" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B43" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.15625</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B45" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B47" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F0517E-23D5-444F-A585-E3ACACDC6A87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C849A-26AA-9240-BDD3-0E3DAAEE6116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-26800" yWindow="1100" windowWidth="19200" windowHeight="19840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>Datum</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>Implementierung Persistierungsphase</t>
+  </si>
+  <si>
+    <t>Bugfixing Frontend/Backend</t>
+  </si>
+  <si>
+    <t>Bugfixing Spiellogik</t>
+  </si>
+  <si>
+    <t>Websocket disconnect handling und Verbesserungen</t>
+  </si>
+  <si>
+    <t>Refactoring backend (besonders typos)</t>
   </si>
 </sst>
 </file>
@@ -619,10 +631,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1306,34 +1318,88 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B49" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B50" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B53" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B54" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C849A-26AA-9240-BDD3-0E3DAAEE6116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B33B788-D9A2-DC4C-80CF-B99CDE8CD4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26800" yWindow="1100" windowWidth="19200" windowHeight="19840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-30840" yWindow="1560" windowWidth="19200" windowHeight="19840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Refactoring backend (besonders typos)</t>
+  </si>
+  <si>
+    <t>Re-tested deployment process, wrote deployment section in readme</t>
+  </si>
+  <si>
+    <t>Teammeeting zu Testdrehbuch</t>
   </si>
 </sst>
 </file>
@@ -634,7 +640,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1402,19 +1408,46 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B55" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B56" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B57" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B33B788-D9A2-DC4C-80CF-B99CDE8CD4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BEC886-A9D9-7941-A69B-037EB3B6D9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30840" yWindow="1560" windowWidth="19200" windowHeight="19840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
   <si>
     <t>Datum</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Teammeeting zu Testdrehbuch</t>
+  </si>
+  <si>
+    <t>Systemtest Gruppe 5</t>
+  </si>
+  <si>
+    <t>Überarbeitung Systemtest Gruppe 5</t>
   </si>
 </sst>
 </file>
@@ -637,10 +643,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1450,19 +1456,46 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="8">
+        <v>44330</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="8">
+        <v>44335</v>
+      </c>
+      <c r="B59" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="8">
+        <v>44339</v>
+      </c>
+      <c r="B60" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BEC886-A9D9-7941-A69B-037EB3B6D9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D778850-97FA-0D47-88D3-9B60674615EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
   <si>
     <t>Datum</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>Überarbeitung Systemtest Gruppe 5</t>
+  </si>
+  <si>
+    <t>Überarbeitung Game Creation Rest Call laut Feedback</t>
+  </si>
+  <si>
+    <t>Überarbeitung Ready Logic laut Feedback</t>
+  </si>
+  <si>
+    <t>Refactoring Gamelogic</t>
   </si>
 </sst>
 </file>
@@ -643,10 +652,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1498,19 +1507,46 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="8">
+        <v>44340</v>
+      </c>
+      <c r="B61" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="8">
+        <v>44340</v>
+      </c>
+      <c r="B62" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="8">
+        <v>44344</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D778850-97FA-0D47-88D3-9B60674615EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6D99C1-9B1E-024E-91B7-3F45D08E2A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
   <si>
     <t>Datum</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>Refactoring Gamelogic</t>
+  </si>
+  <si>
+    <t>Erstellung Statement für Proseminar</t>
+  </si>
+  <si>
+    <t>Unit tests für Gamelogic</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1549,19 +1555,46 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="8">
+        <v>44346</v>
+      </c>
+      <c r="B64" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="8">
+        <v>44347</v>
+      </c>
+      <c r="B65" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="8">
+        <v>44351</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6D99C1-9B1E-024E-91B7-3F45D08E2A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB8A4DF-4A5C-A64E-A696-093DBDDCDCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Unit tests für Gamelogic</t>
+  </si>
+  <si>
+    <t>Erstellen von Klassendiagrammen</t>
   </si>
 </sst>
 </file>
@@ -657,11 +660,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1597,9 +1600,18 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="8">
+        <v>44358</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Marcel_Huber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcel/Documents/Software_engineering/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB8A4DF-4A5C-A64E-A696-093DBDDCDCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F9B45B-64FC-C540-B8C5-24D3EA97491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -660,11 +660,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S57" sqref="S57"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1614,14 +1614,32 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B68" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="7"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="8"/>
